--- a/my1stProject/apbmst/apbmst.xlsx
+++ b/my1stProject/apbmst/apbmst.xlsx
@@ -5,51 +5,26 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoC\Std_lib\apbmst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\Documents\SoCgit\hello-world\my1stProject\apbmst\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
     <sheet name="Parameters" sheetId="11" r:id="rId2"/>
     <sheet name="Views" sheetId="17" r:id="rId3"/>
     <sheet name="Enumeration " sheetId="12" r:id="rId4"/>
-    <sheet name="IOport" sheetId="10" r:id="rId5"/>
-    <sheet name="Register" sheetId="15" r:id="rId6"/>
-    <sheet name="Electrical" sheetId="18" r:id="rId7"/>
-    <sheet name="Physical" sheetId="19" r:id="rId8"/>
-    <sheet name="Interfaces " sheetId="13" r:id="rId9"/>
-    <sheet name="ids_template" sheetId="20" r:id="rId10"/>
+    <sheet name="AddressSpaces" sheetId="22" r:id="rId5"/>
+    <sheet name="IOport" sheetId="10" r:id="rId6"/>
+    <sheet name="Register" sheetId="15" r:id="rId7"/>
+    <sheet name="Electrical" sheetId="18" r:id="rId8"/>
+    <sheet name="Physical" sheetId="19" r:id="rId9"/>
+    <sheet name="Interfaces " sheetId="13" r:id="rId10"/>
+    <sheet name="ids_template" sheetId="21" r:id="rId11"/>
   </sheets>
-  <definedNames>
-    <definedName name="analog_i" localSheetId="3">#REF!</definedName>
-    <definedName name="analog_i" localSheetId="0">#REF!</definedName>
-    <definedName name="analog_i" localSheetId="8">#REF!</definedName>
-    <definedName name="analog_i" localSheetId="4">#REF!</definedName>
-    <definedName name="analog_i" localSheetId="1">#REF!</definedName>
-    <definedName name="analog_i">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="3">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="0">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="8">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="4">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="1">#REF!</definedName>
-    <definedName name="analog_v">#REF!</definedName>
-    <definedName name="digital" localSheetId="3">#REF!</definedName>
-    <definedName name="digital" localSheetId="0">#REF!</definedName>
-    <definedName name="digital" localSheetId="8">#REF!</definedName>
-    <definedName name="digital" localSheetId="4">#REF!</definedName>
-    <definedName name="digital" localSheetId="1">#REF!</definedName>
-    <definedName name="digital">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="3">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="0">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="8">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="4">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="1">#REF!</definedName>
-    <definedName name="vsupply">#REF!</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D163" authorId="0" shapeId="0">
+    <comment ref="D175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0" shapeId="0">
+    <comment ref="D176" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D165" authorId="0" shapeId="0">
+    <comment ref="D177" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D166" authorId="0" shapeId="0">
+    <comment ref="D178" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="508">
   <si>
     <t>Component Name</t>
   </si>
@@ -860,9 +835,6 @@
     <t>$pc_y</t>
   </si>
   <si>
-    <t>AMS Discipline</t>
-  </si>
-  <si>
     <t>$ams_decsipline</t>
   </si>
   <si>
@@ -1163,9 +1135,6 @@
     <t>$drefpath</t>
   </si>
   <si>
-    <t>Specification Type</t>
-  </si>
-  <si>
     <t>default_address</t>
   </si>
   <si>
@@ -1217,9 +1186,6 @@
     <t>Interface Description</t>
   </si>
   <si>
-    <t>BaseAddresses or range</t>
-  </si>
-  <si>
     <t>RemapAddressName</t>
   </si>
   <si>
@@ -1391,14 +1357,272 @@
     <t>This sheet describe all the parameters needed for this component</t>
   </si>
   <si>
-    <t>chip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block  </t>
+    <t>width</t>
+  </si>
+  <si>
+    <t>spiritconsortium.org</t>
+  </si>
+  <si>
+    <t>apbmst</t>
+  </si>
+  <si>
+    <t>Leon2RTL</t>
+  </si>
+  <si>
+    <t>vhdlsource</t>
+  </si>
+  <si>
+    <t>clk</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>rst</t>
+  </si>
+  <si>
+    <t>hsize</t>
+  </si>
+  <si>
+    <t>hsize[2:0]</t>
+  </si>
+  <si>
+    <t>haddr</t>
+  </si>
+  <si>
+    <t>haddr[31:0]</t>
+  </si>
+  <si>
+    <t>htrans[1:0]</t>
+  </si>
+  <si>
+    <t>hwrite</t>
+  </si>
+  <si>
+    <t>hwdata[31:0]</t>
+  </si>
+  <si>
+    <t>hreadyin</t>
+  </si>
+  <si>
+    <t>hsel</t>
+  </si>
+  <si>
+    <t>hrdata</t>
+  </si>
+  <si>
+    <t>hreadyout</t>
+  </si>
+  <si>
+    <t>hresp</t>
+  </si>
+  <si>
+    <t>hprot</t>
+  </si>
+  <si>
+    <t>hburst</t>
+  </si>
+  <si>
+    <t>prdata</t>
+  </si>
+  <si>
+    <t>pwdata</t>
+  </si>
+  <si>
+    <t>penable</t>
+  </si>
+  <si>
+    <t>paddr</t>
+  </si>
+  <si>
+    <t>pwrite</t>
+  </si>
+  <si>
+    <t>psel</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>paddr[31:0]</t>
+  </si>
+  <si>
+    <t>pwdata[31:0]</t>
+  </si>
+  <si>
+    <t>prdata[31:0]</t>
+  </si>
+  <si>
+    <t>hburst[2:0]</t>
+  </si>
+  <si>
+    <t>hprot[3:0]</t>
+  </si>
+  <si>
+    <t>hresp[1:0]</t>
+  </si>
+  <si>
+    <t>hrdata[31:0]</t>
+  </si>
+  <si>
+    <t>AHBClk</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>AHBReset</t>
+  </si>
+  <si>
+    <t>RESETn</t>
+  </si>
+  <si>
+    <t>ambaAHB</t>
+  </si>
+  <si>
+    <t>HSIZE</t>
+  </si>
+  <si>
+    <t>HADDR</t>
+  </si>
+  <si>
+    <t>HTRANS</t>
+  </si>
+  <si>
+    <t>htrans</t>
+  </si>
+  <si>
+    <t>HWRITE</t>
+  </si>
+  <si>
+    <t>HWDATA</t>
+  </si>
+  <si>
+    <t>hwdata</t>
+  </si>
+  <si>
+    <t>HREADY</t>
+  </si>
+  <si>
+    <t>HSELx</t>
+  </si>
+  <si>
+    <t>HRDATA</t>
+  </si>
+  <si>
+    <t>HREADYOUT</t>
+  </si>
+  <si>
+    <t>HRESP</t>
+  </si>
+  <si>
+    <t>HPROT</t>
+  </si>
+  <si>
+    <t>HBURST</t>
+  </si>
+  <si>
+    <t>ambaAPB</t>
+  </si>
+  <si>
+    <t>PRDATA</t>
+  </si>
+  <si>
+    <t>PWDATA</t>
+  </si>
+  <si>
+    <t>PENABLE</t>
+  </si>
+  <si>
+    <t>PADDR</t>
+  </si>
+  <si>
+    <t>PWRITE</t>
+  </si>
+  <si>
+    <t>PSELx</t>
+  </si>
+  <si>
+    <t>addressWidthChoice</t>
+  </si>
+  <si>
+    <t>8K</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>512K</t>
+  </si>
+  <si>
+    <t>256K</t>
+  </si>
+  <si>
+    <t>128K</t>
+  </si>
+  <si>
+    <t>64K</t>
+  </si>
+  <si>
+    <t>32K</t>
+  </si>
+  <si>
+    <t>16K</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>16M</t>
+  </si>
+  <si>
+    <t>32M</t>
+  </si>
+  <si>
+    <t>64M</t>
+  </si>
+  <si>
+    <t>128M</t>
+  </si>
+  <si>
+    <t>256M</t>
+  </si>
+  <si>
+    <t>1024M</t>
+  </si>
+  <si>
+    <t>2048M</t>
+  </si>
+  <si>
+    <t>reg1</t>
+  </si>
+  <si>
+    <t>fld1</t>
+  </si>
+  <si>
+    <t>fld2</t>
+  </si>
+  <si>
+    <t>BusInterfaceType</t>
+  </si>
+  <si>
+    <t>BaseAddresses_or_range</t>
+  </si>
+  <si>
+    <t>RemapDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block  </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">register </t>
+      <t xml:space="preserve">Register </t>
     </r>
     <r>
       <rPr>
@@ -1412,391 +1636,172 @@
     </r>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bits </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw access </t>
-  </si>
-  <si>
-    <t xml:space="preserve">field default  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw access </t>
-  </si>
-  <si>
-    <t xml:space="preserve">field description  </t>
-  </si>
-  <si>
-    <t>offset</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>sheet name</t>
-  </si>
-  <si>
-    <t>define description</t>
-  </si>
-  <si>
-    <t>enum name</t>
-  </si>
-  <si>
-    <t>enum value</t>
-  </si>
-  <si>
-    <t>mnemonic name</t>
-  </si>
-  <si>
-    <t>enum description</t>
-  </si>
-  <si>
-    <t>Spec Type</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>busInterfaceRef</t>
-  </si>
-  <si>
-    <t>businterface</t>
-  </si>
-  <si>
-    <t>type or connect to</t>
-  </si>
-  <si>
-    <t>physical name</t>
-  </si>
-  <si>
-    <t>logical name</t>
-  </si>
-  <si>
-    <t>description_intrf</t>
-  </si>
-  <si>
-    <t>baseAddresses or range</t>
-  </si>
-  <si>
-    <t>remapAddressName</t>
-  </si>
-  <si>
-    <t>remapAddressValue</t>
-  </si>
-  <si>
-    <t>Library Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>i_Bus</t>
-  </si>
-  <si>
-    <t>busProperties</t>
-  </si>
-  <si>
-    <t>Descr</t>
-  </si>
-  <si>
-    <t>t_Bus</t>
-  </si>
-  <si>
-    <t>SInitiator</t>
-  </si>
-  <si>
-    <t>i_Signal</t>
-  </si>
-  <si>
-    <t>signalProperties</t>
-  </si>
-  <si>
-    <t>t_Signal</t>
-  </si>
-  <si>
-    <t>singnalDesc</t>
-  </si>
-  <si>
-    <t>spiritconsortium.org</t>
-  </si>
-  <si>
-    <t>apbmst</t>
-  </si>
-  <si>
-    <t>Leon2RTL</t>
-  </si>
-  <si>
-    <t>vhdlsource</t>
-  </si>
-  <si>
-    <t>clk</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>rst</t>
-  </si>
-  <si>
-    <t>hsize</t>
-  </si>
-  <si>
-    <t>hsize[2:0]</t>
-  </si>
-  <si>
-    <t>haddr</t>
-  </si>
-  <si>
-    <t>haddr[31:0]</t>
-  </si>
-  <si>
-    <t>htrans[1:0]</t>
-  </si>
-  <si>
-    <t>hwrite</t>
-  </si>
-  <si>
-    <t>hwdata[31:0]</t>
-  </si>
-  <si>
-    <t>hreadyin</t>
-  </si>
-  <si>
-    <t>hsel</t>
-  </si>
-  <si>
-    <t>hrdata</t>
-  </si>
-  <si>
-    <t>hreadyout</t>
-  </si>
-  <si>
-    <t>hresp</t>
-  </si>
-  <si>
-    <t>hprot</t>
-  </si>
-  <si>
-    <t>hburst</t>
-  </si>
-  <si>
-    <t>prdata</t>
-  </si>
-  <si>
-    <t>pwdata</t>
-  </si>
-  <si>
-    <t>penable</t>
-  </si>
-  <si>
-    <t>paddr</t>
-  </si>
-  <si>
-    <t>pwrite</t>
-  </si>
-  <si>
-    <t>psel</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>paddr[31:0]</t>
-  </si>
-  <si>
-    <t>pwdata[31:0]</t>
-  </si>
-  <si>
-    <t>prdata[31:0]</t>
-  </si>
-  <si>
-    <t>hburst[2:0]</t>
-  </si>
-  <si>
-    <t>hprot[3:0]</t>
-  </si>
-  <si>
-    <t>hresp[1:0]</t>
-  </si>
-  <si>
-    <t>hrdata[31:0]</t>
-  </si>
-  <si>
-    <t>AHBClk</t>
-  </si>
-  <si>
-    <t>CLK</t>
-  </si>
-  <si>
-    <t>AHBReset</t>
-  </si>
-  <si>
-    <t>RESETn</t>
-  </si>
-  <si>
-    <t>ambaAHB</t>
-  </si>
-  <si>
-    <t>HSIZE</t>
-  </si>
-  <si>
-    <t>HADDR</t>
-  </si>
-  <si>
-    <t>HTRANS</t>
-  </si>
-  <si>
-    <t>htrans</t>
-  </si>
-  <si>
-    <t>HWRITE</t>
-  </si>
-  <si>
-    <t>HWDATA</t>
-  </si>
-  <si>
-    <t>hwdata</t>
-  </si>
-  <si>
-    <t>HREADY</t>
-  </si>
-  <si>
-    <t>HSELx</t>
-  </si>
-  <si>
-    <t>HRDATA</t>
-  </si>
-  <si>
-    <t>HREADYOUT</t>
-  </si>
-  <si>
-    <t>HRESP</t>
-  </si>
-  <si>
-    <t>HPROT</t>
-  </si>
-  <si>
-    <t>HBURST</t>
-  </si>
-  <si>
-    <t>HCLK</t>
-  </si>
-  <si>
-    <t>HRESETn</t>
-  </si>
-  <si>
-    <t>ambaAPB</t>
-  </si>
-  <si>
-    <t>PRDATA</t>
-  </si>
-  <si>
-    <t>PWDATA</t>
-  </si>
-  <si>
-    <t>PENABLE</t>
-  </si>
-  <si>
-    <t>PADDR</t>
-  </si>
-  <si>
-    <t>PWRITE</t>
-  </si>
-  <si>
-    <t>PSELx</t>
-  </si>
-  <si>
-    <t>PCLK</t>
-  </si>
-  <si>
-    <t>PRESETn</t>
-  </si>
-  <si>
-    <t>addressWidthChoice</t>
-  </si>
-  <si>
-    <t>8K</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>512K</t>
-  </si>
-  <si>
-    <t>256K</t>
-  </si>
-  <si>
-    <t>128K</t>
-  </si>
-  <si>
-    <t>64K</t>
-  </si>
-  <si>
-    <t>32K</t>
-  </si>
-  <si>
-    <t>16K</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>4M</t>
-  </si>
-  <si>
-    <t>8M</t>
-  </si>
-  <si>
-    <t>16M</t>
-  </si>
-  <si>
-    <t>32M</t>
-  </si>
-  <si>
-    <t>64M</t>
-  </si>
-  <si>
-    <t>128M</t>
-  </si>
-  <si>
-    <t>256M</t>
-  </si>
-  <si>
-    <t>1024M</t>
-  </si>
-  <si>
-    <t>2048M</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>reg1</t>
-  </si>
-  <si>
-    <t>0x4</t>
-  </si>
-  <si>
-    <t>fld1</t>
-  </si>
-  <si>
-    <t>[15:0]</t>
-  </si>
-  <si>
-    <t>fld2</t>
-  </si>
-  <si>
-    <t>[31:16]</t>
+    <t xml:space="preserve">Field  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sw access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field default  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hw access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field description  </t>
+  </si>
+  <si>
+    <t>Sheet name</t>
+  </si>
+  <si>
+    <t>spec_type</t>
+  </si>
+  <si>
+    <t>ams_discipline</t>
+  </si>
+  <si>
+    <t>BusInterfaceRef</t>
+  </si>
+  <si>
+    <t>$bus_interface_type</t>
+  </si>
+  <si>
+    <t>$remapdesc</t>
+  </si>
+  <si>
+    <t>Comp Name</t>
+  </si>
+  <si>
+    <t>Instance Description</t>
+  </si>
+  <si>
+    <t>Instance Ref</t>
+  </si>
+  <si>
+    <t>I_Bus</t>
+  </si>
+  <si>
+    <t>BusProperties</t>
+  </si>
+  <si>
+    <t>Bus connection  Desc</t>
+  </si>
+  <si>
+    <t>T_Bus</t>
+  </si>
+  <si>
+    <t>Sinitiator</t>
+  </si>
+  <si>
+    <t>I_Signal</t>
+  </si>
+  <si>
+    <t>SignalProperties</t>
+  </si>
+  <si>
+    <t>T_Signal</t>
+  </si>
+  <si>
+    <t>Signal connections Desc</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>AddressSpaces</t>
+  </si>
+  <si>
+    <t>addressSpace</t>
+  </si>
+  <si>
+    <t>$address_space</t>
+  </si>
+  <si>
+    <t>localMemorymap</t>
+  </si>
+  <si>
+    <t>$local_memorymap</t>
+  </si>
+  <si>
+    <t>addressBlock</t>
+  </si>
+  <si>
+    <t>$address_block</t>
+  </si>
+  <si>
+    <t>addressOffset</t>
+  </si>
+  <si>
+    <t>$address_offset</t>
+  </si>
+  <si>
+    <t>baseAddress</t>
+  </si>
+  <si>
+    <t>$base_address</t>
+  </si>
+  <si>
+    <t>addressUnit</t>
+  </si>
+  <si>
+    <t>$address_unit</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>$range</t>
+  </si>
+  <si>
+    <t>$width</t>
+  </si>
+  <si>
+    <t>addressSpaceDescription</t>
+  </si>
+  <si>
+    <t>$address_description</t>
+  </si>
+  <si>
+    <t>slave</t>
+  </si>
+  <si>
+    <t>spiritconsortium.org,busdef.clock,clock_rtl,1.0</t>
+  </si>
+  <si>
+    <t>amba.com,AMBA2,AHB_rtl,r2p0_6</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>amba.com,AMBA2,APB_rtl,r2p0_4</t>
+  </si>
+  <si>
+    <t>spiritconsortium.org,busdef.reset,reset_rtl,1.0</t>
+  </si>
+  <si>
+    <t>localMemoryMap</t>
+  </si>
+  <si>
+    <t>apb</t>
+  </si>
+  <si>
+    <t>Master Port Size :</t>
+  </si>
+  <si>
+    <t>{addressSpaceRef=apb}</t>
+  </si>
+  <si>
+    <t>{memoryMapRef=ambaAHB}</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31:16</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2580,12 +2585,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2601,9 +2632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2613,11 +2641,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2744,7 +2768,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -2838,25 +2861,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2906,10 +2926,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2977,12 +2997,719 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3260,7 +3987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -3274,25 +4001,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="147" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
+      <c r="A1" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="142" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="141"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3303,39 +4030,39 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="97" t="s">
-        <v>407</v>
+      <c r="B8" s="93" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="97" t="s">
-        <v>409</v>
+      <c r="B11" s="93" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="97">
+      <c r="B14" s="93">
         <v>1.2</v>
       </c>
     </row>
@@ -3349,68 +4076,68 @@
     </row>
     <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="90"/>
+      <c r="B20" s="86"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
+      <c r="B21" s="87"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="91"/>
+      <c r="B22" s="87"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="92"/>
+      <c r="B23" s="88"/>
     </row>
     <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="105"/>
+      <c r="B26" s="101"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="108"/>
+      <c r="B27" s="104"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="109"/>
+      <c r="B28" s="105"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
     </row>
     <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="93"/>
+      <c r="B32" s="89"/>
     </row>
     <row r="34" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G35" s="133" t="s">
+      <c r="F35" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="129" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3447,35 +4174,35 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="101"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="99"/>
     </row>
     <row r="43" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G44" s="133" t="s">
+      <c r="F44" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="129" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3512,38 +4239,38 @@
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="103"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="99"/>
     </row>
     <row r="52" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="129" t="s">
         <v>275</v>
       </c>
-      <c r="C53" s="133" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="106"/>
-      <c r="C54" s="107"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="103"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="80"/>
+      <c r="B55" s="77"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="80"/>
+      <c r="B56" s="77"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="80"/>
+      <c r="B57" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3556,11 +4283,835 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="142" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+    </row>
+    <row r="2" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="132" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="179" t="s">
+        <v>447</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="H2" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" s="179" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" s="179" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1 B3:B1048576">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A55 C56:I56 C3:J55">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
+      <formula>LEN(TRIM(J56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47:H48 H41:H42">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F50">
+      <formula1>"master,slave,system,mirroredMaster,mirroredSlave,mirroredSystem,monitor"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F191"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,1930 +5125,2061 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="173"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="37" t="s">
+      <c r="D5" s="168"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="37" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="37" t="s">
+      <c r="D7" s="168"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="173"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="37" t="s">
+      <c r="D8" s="168"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" s="40" t="s">
+    <row r="9" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="37" t="s">
+      <c r="D9" s="168"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="37" t="s">
+      <c r="D10" s="168"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="173"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="42" t="s">
+      <c r="D11" s="168"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="173"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="42" t="s">
+      <c r="D12" s="168"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="B13" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="37" t="s">
+      <c r="D13" s="168"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="173"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="37" t="s">
+      <c r="D14" s="168"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="37" t="s">
+      <c r="D15" s="168"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="47" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="47" t="s">
+      <c r="D17" s="168"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="47" t="s">
+      <c r="D18" s="168"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="173"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="47"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="173"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="47"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="175"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="170"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="175"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="170"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="C23" s="45" t="s">
+      <c r="B23" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="47" t="s">
+      <c r="D23" s="168"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="44" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="173"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="47" t="s">
+      <c r="D24" s="168"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="47" t="s">
+      <c r="D25" s="168"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="44" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="47" t="s">
+      <c r="D26" s="169"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="175"/>
-      <c r="F27" s="47" t="s">
+      <c r="E27" s="170"/>
+      <c r="F27" s="44" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="176"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="47"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="47" t="s">
+      <c r="D29" s="172"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="44" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" s="45" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="177"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="47"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="44"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="177"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="47" t="s">
+      <c r="D31" s="172"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="44" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="177"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="47"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="177"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="47"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="177"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="47"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="52" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="177"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="47"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="177"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="47"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="C38" s="45" t="s">
+      <c r="B38" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="177"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="47" t="s">
+      <c r="D38" s="172"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="44" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="C39" s="45" t="s">
+      <c r="B39" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="178"/>
-      <c r="E39" s="175"/>
-      <c r="F39" s="47" t="s">
+      <c r="D39" s="173"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="C40" s="45" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="175"/>
-      <c r="F40" s="47" t="s">
+      <c r="E40" s="170"/>
+      <c r="F40" s="44" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="C41" s="45" t="s">
+      <c r="B41" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="175"/>
-      <c r="F41" s="47" t="s">
+      <c r="E41" s="170"/>
+      <c r="F41" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="C42" s="45" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="C42" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="175"/>
-      <c r="F42" s="47" t="s">
+      <c r="E42" s="170"/>
+      <c r="F42" s="44" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="C43" s="56" t="s">
+      <c r="B43" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="C43" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="179"/>
-      <c r="E43" s="175"/>
-      <c r="F43" s="47" t="s">
+      <c r="D43" s="174"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="44" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="180"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="47" t="s">
+      <c r="D44" s="175"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="44" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="180"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="47"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="44"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="44"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="47"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="44"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="180"/>
-      <c r="E47" s="175"/>
-      <c r="F47" s="47" t="s">
+      <c r="D47" s="175"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="180"/>
-      <c r="E48" s="175"/>
+      <c r="D48" s="175"/>
+      <c r="E48" s="170"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="175"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="170"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="175"/>
-      <c r="F50" s="47" t="s">
+      <c r="D50" s="175"/>
+      <c r="E50" s="170"/>
+      <c r="F50" s="44" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="175"/>
-      <c r="F51" s="47" t="s">
+      <c r="D51" s="175"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="180"/>
-      <c r="E52" s="175"/>
-      <c r="F52" s="47" t="s">
+      <c r="D52" s="175"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="44" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="180"/>
-      <c r="E53" s="175"/>
-      <c r="F53" s="47" t="s">
+      <c r="D53" s="175"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="44" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="180"/>
-      <c r="E54" s="175"/>
-      <c r="F54" s="47" t="s">
+      <c r="D54" s="175"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="44" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="180"/>
-      <c r="E55" s="175"/>
-      <c r="F55" s="47" t="s">
+      <c r="D55" s="175"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="44" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="180"/>
-      <c r="E56" s="175"/>
-      <c r="F56" s="47" t="s">
+      <c r="D56" s="175"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="44" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="44"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="180"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="47"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="175"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="44"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="C58" s="56" t="s">
+      <c r="A58" s="55"/>
+      <c r="B58" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="C58" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="180"/>
-      <c r="E58" s="175"/>
-      <c r="F58" s="47" t="s">
+      <c r="D58" s="175"/>
+      <c r="E58" s="170"/>
+      <c r="F58" s="44" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="44" t="s">
+      <c r="A59" s="56"/>
+      <c r="B59" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="180"/>
-      <c r="E59" s="175"/>
-      <c r="F59" s="47" t="s">
+      <c r="D59" s="175"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="44" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="44" t="s">
+      <c r="A60" s="56"/>
+      <c r="B60" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="180"/>
-      <c r="E60" s="175"/>
-      <c r="F60" s="47" t="s">
+      <c r="D60" s="175"/>
+      <c r="E60" s="170"/>
+      <c r="F60" s="44" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="44" t="s">
+      <c r="A61" s="56"/>
+      <c r="B61" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="180"/>
-      <c r="E61" s="175"/>
-      <c r="F61" s="47" t="s">
+      <c r="D61" s="175"/>
+      <c r="E61" s="170"/>
+      <c r="F61" s="44" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="44" t="s">
+      <c r="A62" s="56"/>
+      <c r="B62" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="180"/>
-      <c r="E62" s="175"/>
-      <c r="F62" s="47" t="s">
+      <c r="D62" s="175"/>
+      <c r="E62" s="170"/>
+      <c r="F62" s="44" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
-      <c r="B63" s="44" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="180"/>
-      <c r="E63" s="175"/>
-      <c r="F63" s="47" t="s">
+      <c r="D63" s="175"/>
+      <c r="E63" s="170"/>
+      <c r="F63" s="44" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="56" t="s">
+      <c r="A64" s="57"/>
+      <c r="B64" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="180"/>
-      <c r="E64" s="175"/>
-      <c r="F64" s="47" t="s">
+      <c r="D64" s="175"/>
+      <c r="E64" s="170"/>
+      <c r="F64" s="44" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="44" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="180"/>
-      <c r="E65" s="175"/>
-      <c r="F65" s="47" t="s">
+      <c r="D65" s="175"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="44" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
-      <c r="B66" s="44" t="s">
+      <c r="A66" s="57"/>
+      <c r="B66" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="180"/>
-      <c r="E66" s="175"/>
-      <c r="F66" s="47" t="s">
+      <c r="D66" s="175"/>
+      <c r="E66" s="170"/>
+      <c r="F66" s="44" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="44" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="180"/>
-      <c r="E67" s="175"/>
-      <c r="F67" s="47" t="s">
+      <c r="D67" s="175"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="44" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="180"/>
-      <c r="E68" s="175"/>
-      <c r="F68" s="47" t="s">
+      <c r="D68" s="175"/>
+      <c r="E68" s="170"/>
+      <c r="F68" s="44" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="141"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="47" t="s">
+      <c r="D69" s="137"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="44" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="141"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="47"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="44"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="47" t="s">
+      <c r="D71" s="59"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="44" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="64"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="47"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="44"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="64"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="47"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="44"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="64"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="47"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="44"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B75" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="63"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="44"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="63"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="44"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="76" t="s">
+        <v>458</v>
+      </c>
+      <c r="C77" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="63"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="44"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C78" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="63"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="44"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="76"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="44"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="C80" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="63"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="44"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="C81" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="63"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="44"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="63"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="44"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="C83" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="63"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="44"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="61"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="44"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="61"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="44"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" s="63"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="44"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="63"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="44"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="C88" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="63"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="44"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="63"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="44"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="63"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="44"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="C91" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="63"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="44"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="63"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="44"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="61"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="44"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="61"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="44"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="63"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="44"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96" s="63"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="44"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" s="63"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="44"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="63"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="44"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" s="63"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="44"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" s="63"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="44"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" s="63"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="44"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="63"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="44"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" s="63"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="44"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="63"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="44"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="63"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="44"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="63"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="44"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="61"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="44"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="B75" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D75" s="66"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="47"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="C76" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" s="66"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="47"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="79" t="s">
-        <v>378</v>
-      </c>
-      <c r="C77" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="D77" s="66"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="47"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="79" t="s">
-        <v>379</v>
-      </c>
-      <c r="C78" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="D78" s="66"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="47"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="79"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="47"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="79" t="s">
-        <v>380</v>
-      </c>
-      <c r="C80" s="78" t="s">
-        <v>239</v>
-      </c>
-      <c r="D80" s="66"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="47"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="77" t="s">
-        <v>381</v>
-      </c>
-      <c r="C81" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="D81" s="66"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="47"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="79" t="s">
-        <v>382</v>
-      </c>
-      <c r="C82" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="D82" s="66"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="47"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="79" t="s">
-        <v>383</v>
-      </c>
-      <c r="C83" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="D83" s="66"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="47"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="64"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="47"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="47"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D86" s="66"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="47"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="C87" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" s="66"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="47"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="C88" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" s="66"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="47"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="D89" s="66"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="47"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="D90" s="66"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="47"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="47"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D92" s="66"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="47"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="64"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="47"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="B94" s="64"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="47"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="C95" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" s="66"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="47"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="66"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="47"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" s="66"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="47"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" s="66"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="47"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="66"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="47"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="66"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="47"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" s="66"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="47"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" s="66"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="47"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" s="66"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="47"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104" s="66"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="47"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="66"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="47"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="65" t="s">
+      <c r="D108" s="63"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="44"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="C109" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="D109" s="63"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="44"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="61"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="44"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="61"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="44"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C112" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112" s="63"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="44"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C113" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="63"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="44"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C114" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D114" s="63"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="44"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C115" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" s="63"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="44"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="C116" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D116" s="63"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="44"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="61" t="s">
+        <v>448</v>
+      </c>
+      <c r="C117" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D117" s="63"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="44"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="D118" s="63"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="44"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" s="63"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="44"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="61" t="s">
+        <v>447</v>
+      </c>
+      <c r="C120" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="D120" s="63"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="44"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="61" t="s">
+        <v>449</v>
+      </c>
+      <c r="C121" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="D121" s="63"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="44"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="61"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="44"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B123" s="61"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="63"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="44"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="C124" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="D124" s="63"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="44"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="D125" s="63"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="44"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="D126" s="63"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="44"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="D127" s="63"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="44"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="C128" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D128" s="63"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="44"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="C129" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="D129" s="63"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="44"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="C130" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D130" s="63"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="44"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C131" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="D131" s="63"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="44"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="C132" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" s="63"/>
+      <c r="E132" s="64"/>
+      <c r="F132" s="44"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="C133" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="D133" s="63"/>
+      <c r="E133" s="64"/>
+      <c r="F133" s="44"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="61"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="44"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="61"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="64"/>
+      <c r="F135" s="44"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="B136" s="61"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="44"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="C137" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="D137" s="63"/>
+      <c r="E137" s="64"/>
+      <c r="F137" s="44"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="61" t="s">
+        <v>467</v>
+      </c>
+      <c r="C138" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="D138" s="63"/>
+      <c r="E138" s="64"/>
+      <c r="F138" s="44"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="C139" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="D139" s="63"/>
+      <c r="E139" s="64"/>
+      <c r="F139" s="44"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="C140" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="D140" s="63"/>
+      <c r="E140" s="64"/>
+      <c r="F140" s="44"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="61" t="s">
+        <v>469</v>
+      </c>
+      <c r="C141" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="D141" s="63"/>
+      <c r="E141" s="64"/>
+      <c r="F141" s="44"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="C142" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="D142" s="63"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="44"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="61"/>
+      <c r="C143" s="62"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="44"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="B144" s="61"/>
+      <c r="C144" s="62"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="44"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="C145" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="D145" s="63"/>
+      <c r="E145" s="64"/>
+      <c r="F145" s="44"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="C146" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="D146" s="63"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="44"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="C147" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="D147" s="63"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="44"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="C148" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="D148" s="63"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="44"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="C149" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="D149" s="63"/>
+      <c r="E149" s="64"/>
+      <c r="F149" s="44"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="C150" s="62" t="s">
+        <v>354</v>
+      </c>
+      <c r="D150" s="63"/>
+      <c r="E150" s="64"/>
+      <c r="F150" s="44"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" s="61"/>
+      <c r="C151" s="62"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="64"/>
+      <c r="F151" s="44"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="C152" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D152" s="63"/>
+      <c r="E152" s="64"/>
+      <c r="F152" s="44"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="C153" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="D153" s="63"/>
+      <c r="E153" s="64"/>
+      <c r="F153" s="44"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="C154" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="D154" s="63"/>
+      <c r="E154" s="64"/>
+      <c r="F154" s="44"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="D155" s="63"/>
+      <c r="E155" s="64"/>
+      <c r="F155" s="44"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="D156" s="63"/>
+      <c r="E156" s="64"/>
+      <c r="F156" s="44"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="D157" s="63"/>
+      <c r="E157" s="64"/>
+      <c r="F157" s="44"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="61"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="64"/>
+      <c r="F158" s="44"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="61"/>
+      <c r="C159" s="62"/>
+      <c r="D159" s="63"/>
+      <c r="E159" s="64"/>
+      <c r="F159" s="44"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>477</v>
+      </c>
+      <c r="B160" s="61"/>
+      <c r="C160" s="62"/>
+      <c r="D160" s="63"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="44"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="C161" s="62" t="s">
+        <v>479</v>
+      </c>
+      <c r="D161" s="63"/>
+      <c r="E161" s="64"/>
+      <c r="F161" s="44"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" s="62" t="s">
+        <v>481</v>
+      </c>
+      <c r="D162" s="63"/>
+      <c r="E162" s="64"/>
+      <c r="F162" s="44"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="61" t="s">
+        <v>482</v>
+      </c>
+      <c r="C163" s="62" t="s">
+        <v>483</v>
+      </c>
+      <c r="D163" s="63"/>
+      <c r="E163" s="64"/>
+      <c r="F163" s="44"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="61" t="s">
+        <v>484</v>
+      </c>
+      <c r="C164" s="62" t="s">
+        <v>485</v>
+      </c>
+      <c r="D164" s="63"/>
+      <c r="E164" s="64"/>
+      <c r="F164" s="44"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="C165" s="62" t="s">
+        <v>487</v>
+      </c>
+      <c r="D165" s="63"/>
+      <c r="E165" s="64"/>
+      <c r="F165" s="44"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="61" t="s">
+        <v>488</v>
+      </c>
+      <c r="C166" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="D166" s="63"/>
+      <c r="E166" s="64"/>
+      <c r="F166" s="44"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="61" t="s">
+        <v>490</v>
+      </c>
+      <c r="C167" s="62" t="s">
+        <v>491</v>
+      </c>
+      <c r="D167" s="63"/>
+      <c r="E167" s="64"/>
+      <c r="F167" s="44"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="C168" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="D168" s="63"/>
+      <c r="E168" s="64"/>
+      <c r="F168" s="44"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="61" t="s">
+        <v>493</v>
+      </c>
+      <c r="C169" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="D169" s="63"/>
+      <c r="E169" s="64"/>
+      <c r="F169" s="44"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="61"/>
+      <c r="C170" s="62"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="64"/>
+      <c r="F170" s="44"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="61"/>
+      <c r="C171" s="62"/>
+      <c r="D171" s="63"/>
+      <c r="E171" s="64"/>
+      <c r="F171" s="44"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="61"/>
+      <c r="C172" s="62"/>
+      <c r="D172" s="63"/>
+      <c r="E172" s="64"/>
+      <c r="F172" s="44"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="176" t="s">
         <v>215</v>
       </c>
-      <c r="D106" s="66"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="47"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="64"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="47"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="66"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="47"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="C109" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="D109" s="66"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="47"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="64"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="47"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="B111" s="64"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="47"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="64" t="s">
-        <v>387</v>
-      </c>
-      <c r="C112" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="D112" s="66"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="47"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="C113" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="D113" s="66"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="47"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="C114" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="D114" s="66"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="47"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="64" t="s">
-        <v>390</v>
-      </c>
-      <c r="C115" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="D115" s="66"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="47"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="C116" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="D116" s="66"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="47"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="C117" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="D117" s="66"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="47"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="C118" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="D118" s="66"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="47"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="C119" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="D119" s="66"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="47"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="64"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="47"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="B121" s="64"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="66"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="47"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="C122" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="D122" s="66"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="47"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="C123" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="D123" s="66"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="47"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="C124" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="D124" s="66"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="47"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="C125" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="D125" s="66"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="47"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="C126" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="D126" s="66"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="47"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="64" t="s">
-        <v>333</v>
-      </c>
-      <c r="C127" s="65" t="s">
-        <v>334</v>
-      </c>
-      <c r="D127" s="66"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="47"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="64" t="s">
-        <v>335</v>
-      </c>
-      <c r="C128" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="D128" s="66"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="47"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="C129" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="D129" s="66"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="47"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="64" t="s">
-        <v>396</v>
-      </c>
-      <c r="C130" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="D130" s="66"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="47"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="64" t="s">
-        <v>397</v>
-      </c>
-      <c r="C131" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="D131" s="66"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="47"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="64"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="47"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="64"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="47"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="B134" s="64"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="47"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C135" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="D135" s="66"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="47"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="C136" s="65" t="s">
-        <v>344</v>
-      </c>
-      <c r="D136" s="66"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="47"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="64" t="s">
-        <v>345</v>
-      </c>
-      <c r="C137" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="D137" s="66"/>
-      <c r="E137" s="67"/>
-      <c r="F137" s="47"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="C138" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="D138" s="66"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="47"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="64" t="s">
-        <v>400</v>
-      </c>
-      <c r="C139" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="D139" s="66"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="47"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="C140" s="65" t="s">
-        <v>349</v>
-      </c>
-      <c r="D140" s="66"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="47"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="64"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="66"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="47"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="43" t="s">
-        <v>350</v>
-      </c>
-      <c r="B142" s="64"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="66"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="47"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="C143" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="D143" s="66"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="47"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="C144" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="D144" s="66"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="47"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="64" t="s">
-        <v>353</v>
-      </c>
-      <c r="C145" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="D145" s="66"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="47"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="C146" s="65" t="s">
-        <v>355</v>
-      </c>
-      <c r="D146" s="66"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="47"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="64" t="s">
-        <v>405</v>
-      </c>
-      <c r="C147" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="D147" s="66"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="47"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="C148" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="D148" s="66"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="47"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="B149" s="64"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="66"/>
-      <c r="E149" s="67"/>
-      <c r="F149" s="47"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="C150" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="D150" s="66"/>
-      <c r="E150" s="67"/>
-      <c r="F150" s="47"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="C151" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="D151" s="66"/>
-      <c r="E151" s="67"/>
-      <c r="F151" s="47"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="C152" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="D152" s="66"/>
-      <c r="E152" s="67"/>
-      <c r="F152" s="47"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="C153" s="65" t="s">
-        <v>285</v>
-      </c>
-      <c r="D153" s="66"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="47"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C154" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="D154" s="66"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="47"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="C155" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="D155" s="66"/>
-      <c r="E155" s="67"/>
-      <c r="F155" s="47"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="64"/>
-      <c r="C156" s="65"/>
-      <c r="D156" s="66"/>
-      <c r="E156" s="67"/>
-      <c r="F156" s="47"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="64"/>
-      <c r="C157" s="65"/>
-      <c r="D157" s="66"/>
-      <c r="E157" s="67"/>
-      <c r="F157" s="47"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="64"/>
-      <c r="C158" s="65"/>
-      <c r="D158" s="66"/>
-      <c r="E158" s="67"/>
-      <c r="F158" s="47"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B159" s="64"/>
-      <c r="C159" s="65"/>
-      <c r="D159" s="66"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="47"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="64"/>
-      <c r="C160" s="65"/>
-      <c r="D160" s="66"/>
-      <c r="E160" s="67"/>
-      <c r="F160" s="47"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="181" t="s">
+      <c r="B174" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="177"/>
+      <c r="B175" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B162" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F162" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="182"/>
-      <c r="B163" s="35" t="s">
+      <c r="C175" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="C163" s="45" t="s">
+      <c r="D175" s="65"/>
+      <c r="E175" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="D163" s="68"/>
-      <c r="E163" s="68" t="s">
+      <c r="F175" s="44"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="177"/>
+      <c r="B176" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="F163" s="47"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="182"/>
-      <c r="B164" s="44" t="s">
+      <c r="C176" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="D176" s="65"/>
+      <c r="E176" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="F176" s="44"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="177"/>
+      <c r="B177" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="D164" s="68"/>
-      <c r="E164" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="F164" s="47"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="182"/>
-      <c r="B165" s="35" t="s">
+      <c r="C177" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C165" s="45" t="s">
+      <c r="D177" s="65"/>
+      <c r="E177" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="F177" s="44"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="177"/>
+      <c r="B178" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="D165" s="68"/>
-      <c r="E165" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="F165" s="47"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="182"/>
-      <c r="B166" s="35" t="s">
+      <c r="C178" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="C166" s="45" t="s">
+      <c r="D178" s="65"/>
+      <c r="E178" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="F178" s="44"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="66"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="66"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="66"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C183" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D166" s="68"/>
-      <c r="E166" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="F166" s="47"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="69"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="69"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="69"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C171" s="70" t="s">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D184" s="68" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D172" s="71" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D185" s="68" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D173" s="71" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D186" s="68" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D174" s="71" t="s">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D187" s="69" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D175" s="72" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D188" s="34" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D176" s="37" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D189" s="70"/>
+      <c r="E189" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D177" s="73"/>
-      <c r="E177" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D190" s="71"/>
+      <c r="E190" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D178" s="74"/>
-      <c r="E178" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D191" s="137"/>
+      <c r="E191" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D179" s="141"/>
-      <c r="E179" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +7188,7 @@
     <mergeCell ref="E5:E68"/>
     <mergeCell ref="D28:D39"/>
     <mergeCell ref="D43:D68"/>
-    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A174:A178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5533,103 +7215,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="146" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="133" t="s">
-        <v>303</v>
+      <c r="E2" s="129" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>295</v>
+      <c r="E4" s="17" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="18"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="134"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="134"/>
+      <c r="E8" s="130"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="135"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5667,70 +7349,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="144" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="146" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="151" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="G2" s="133" t="s">
-        <v>288</v>
+      <c r="C2" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="129" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="111" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="104"/>
+      <c r="B3" s="107" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5761,27 +7443,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
-        <v>262</v>
+      <c r="A1" s="90" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>322</v>
-      </c>
-      <c r="D2" s="85" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>472</v>
+      <c r="A3" s="79" t="s">
+        <v>425</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -5790,180 +7472,180 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="6" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="D4" s="110"/>
+        <v>426</v>
+      </c>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="8" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="6" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="6" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="6" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="6" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="6" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="6" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="6" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="6" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="D21" s="12"/>
     </row>
@@ -5993,21 +7675,21 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="96"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="6"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6017,11 +7699,105 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="180" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="136"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="182" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182" t="s">
+        <v>427</v>
+      </c>
+      <c r="H3" s="182">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="182"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="F4" s="182"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6035,50 +7811,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="153" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="151" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
+      <c r="A1" s="148" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="146" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="133" t="s">
-        <v>11</v>
+      <c r="C2" s="14" t="str">
+        <f>ids_template!B89</f>
+        <v>Direction</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>ids_template!B88</f>
+        <v>spec_type</v>
+      </c>
+      <c r="E2" s="14" t="str">
+        <f>ids_template!B91</f>
+        <v>ams_discipline</v>
+      </c>
+      <c r="F2" s="129" t="str">
+        <f>ids_template!B92</f>
+        <v>IO Description</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6086,10 +7866,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6097,10 +7877,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -6108,10 +7888,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6119,10 +7899,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -6130,10 +7910,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -6141,10 +7921,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -6152,10 +7932,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -6163,21 +7943,21 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
-        <v>424</v>
+      <c r="B13" s="83" t="s">
+        <v>381</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -6185,10 +7965,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -6196,10 +7976,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -6207,10 +7987,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -6218,10 +7998,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -6229,10 +8009,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6240,10 +8020,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6251,10 +8031,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6262,10 +8042,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6273,10 +8053,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6394,13 +8174,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6416,83 +8196,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="147" t="s">
-        <v>363</v>
-      </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="A1" s="144" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="142" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="158"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="132" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="132" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="132" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="F3" s="132" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="G3" s="132" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="137" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="137" t="s">
+      <c r="H3" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="F3" s="137" t="s">
+      <c r="I3" s="132" t="s">
         <v>315</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="J3" s="132" t="s">
         <v>316</v>
       </c>
-      <c r="H3" s="137" t="s">
-        <v>317</v>
-      </c>
-      <c r="I3" s="137" t="s">
-        <v>318</v>
-      </c>
-      <c r="J3" s="137" t="s">
-        <v>319</v>
-      </c>
-      <c r="K3" s="137" t="s">
+      <c r="K3" s="132" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>366</v>
+      <c r="B4" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>491</v>
+      <c r="C5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>493</v>
+      <c r="E6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="183" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
@@ -6500,22 +8289,11 @@
       <c r="G7" t="s">
         <v>103</v>
       </c>
-      <c r="I7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>496</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>497</v>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -6528,7 +8306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -6551,338 +8329,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="147" t="s">
-        <v>360</v>
-      </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="A1" s="144" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="142" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="137" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="137" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="137" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="137" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="137" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" s="137" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="M2" s="139" t="s">
-        <v>293</v>
+      <c r="B2" s="132" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="132" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="132" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="132" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="132" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="132" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="132" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="133" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="160"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="119"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="115"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="119"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="115"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="119"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="115"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="119"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="115"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="125"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="121"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="160"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="125"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="121"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="160"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="114"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="110"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="160"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="159"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="159"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="159"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="159"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="159"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="118"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="118"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="118"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -6893,18 +8677,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -6920,243 +8698,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="153" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="147" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
+      <c r="A1" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="142" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
     </row>
     <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="130" t="s">
-        <v>296</v>
+      <c r="A3" s="126" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="80" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="E5" s="134" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="103"/>
+    </row>
+    <row r="8" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="126" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="83" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="80" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="161" t="s">
         <v>299</v>
       </c>
-      <c r="E5" s="140" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="107"/>
-    </row>
-    <row r="8" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="130" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="83" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="166" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="168"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="163"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="170"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="165"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="172"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="167"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="172"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="167"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="172"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="167"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="172"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="172"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="167"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="172"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="167"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="172"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="167"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="172"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="167"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="172"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="167"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="101"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="165"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="160"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="130" t="s">
-        <v>302</v>
+      <c r="A22" s="126" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="83" t="s">
+      <c r="B23" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="E23" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="F23" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="G23" s="83" t="s">
+      <c r="F23" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="80" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
@@ -7175,12 +8953,12 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7201,713 +8979,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="89" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="147" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="138" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="14"/>
-      <c r="C4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="C6" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="C8" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="C9" s="88" t="s">
-        <v>448</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>416</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="C10" s="88" t="s">
-        <v>449</v>
-      </c>
-      <c r="D10" s="88" t="s">
-        <v>450</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="C11" s="88" t="s">
-        <v>451</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>419</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="C12" s="88" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>453</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="C13" s="88" t="s">
-        <v>454</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>421</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="88" t="s">
-        <v>455</v>
-      </c>
-      <c r="D14" s="88" t="s">
-        <v>422</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="88" t="s">
-        <v>456</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>423</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="88" t="s">
-        <v>457</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>424</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="88" t="s">
-        <v>458</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>425</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="88" t="s">
-        <v>459</v>
-      </c>
-      <c r="D18" s="88" t="s">
-        <v>426</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="88" t="s">
-        <v>460</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>427</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="D20" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="88" t="s">
-        <v>462</v>
-      </c>
-      <c r="D21" s="88" t="s">
-        <v>413</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="88" t="s">
-        <v>464</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>428</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="88" t="s">
-        <v>465</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>429</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="88" t="s">
-        <v>466</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>430</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="88" t="s">
-        <v>467</v>
-      </c>
-      <c r="D26" s="88" t="s">
-        <v>431</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="88" t="s">
-        <v>468</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>432</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="88" t="s">
-        <v>469</v>
-      </c>
-      <c r="D28" s="88" t="s">
-        <v>433</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="88" t="s">
-        <v>470</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="88" t="s">
-        <v>471</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>413</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47:H48 H41:H42">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/my1stProject/apbmst/apbmst.xlsx
+++ b/my1stProject/apbmst/apbmst.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="501">
   <si>
     <t>Component Name</t>
   </si>
@@ -1195,27 +1195,6 @@
     <t>Chip</t>
   </si>
   <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Sw access</t>
-  </si>
-  <si>
-    <t>Hw access</t>
-  </si>
-  <si>
-    <t>Field default</t>
-  </si>
-  <si>
-    <t>Bits</t>
-  </si>
-  <si>
     <t>Offset</t>
   </si>
   <si>
@@ -1618,11 +1597,176 @@
     <t>RemapDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Block  </t>
+    <t xml:space="preserve">Bits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sw access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field default  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hw access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field description  </t>
+  </si>
+  <si>
+    <t>Sheet name</t>
+  </si>
+  <si>
+    <t>spec_type</t>
+  </si>
+  <si>
+    <t>ams_discipline</t>
+  </si>
+  <si>
+    <t>BusInterfaceRef</t>
+  </si>
+  <si>
+    <t>$bus_interface_type</t>
+  </si>
+  <si>
+    <t>$remapdesc</t>
+  </si>
+  <si>
+    <t>Comp Name</t>
+  </si>
+  <si>
+    <t>Instance Description</t>
+  </si>
+  <si>
+    <t>Instance Ref</t>
+  </si>
+  <si>
+    <t>I_Bus</t>
+  </si>
+  <si>
+    <t>BusProperties</t>
+  </si>
+  <si>
+    <t>Bus connection  Desc</t>
+  </si>
+  <si>
+    <t>T_Bus</t>
+  </si>
+  <si>
+    <t>Sinitiator</t>
+  </si>
+  <si>
+    <t>I_Signal</t>
+  </si>
+  <si>
+    <t>SignalProperties</t>
+  </si>
+  <si>
+    <t>T_Signal</t>
+  </si>
+  <si>
+    <t>Signal connections Desc</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>AddressSpaces</t>
+  </si>
+  <si>
+    <t>addressSpace</t>
+  </si>
+  <si>
+    <t>$address_space</t>
+  </si>
+  <si>
+    <t>localMemorymap</t>
+  </si>
+  <si>
+    <t>$local_memorymap</t>
+  </si>
+  <si>
+    <t>addressBlock</t>
+  </si>
+  <si>
+    <t>$address_block</t>
+  </si>
+  <si>
+    <t>addressOffset</t>
+  </si>
+  <si>
+    <t>$address_offset</t>
+  </si>
+  <si>
+    <t>baseAddress</t>
+  </si>
+  <si>
+    <t>$base_address</t>
+  </si>
+  <si>
+    <t>addressUnit</t>
+  </si>
+  <si>
+    <t>$address_unit</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>$range</t>
+  </si>
+  <si>
+    <t>$width</t>
+  </si>
+  <si>
+    <t>addressSpaceDescription</t>
+  </si>
+  <si>
+    <t>$address_description</t>
+  </si>
+  <si>
+    <t>slave</t>
+  </si>
+  <si>
+    <t>spiritconsortium.org,busdef.clock,clock_rtl,1.0</t>
+  </si>
+  <si>
+    <t>amba.com,AMBA2,AHB_rtl,r2p0_6</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>amba.com,AMBA2,APB_rtl,r2p0_4</t>
+  </si>
+  <si>
+    <t>spiritconsortium.org,busdef.reset,reset_rtl,1.0</t>
+  </si>
+  <si>
+    <t>localMemoryMap</t>
+  </si>
+  <si>
+    <t>apb</t>
+  </si>
+  <si>
+    <t>Master Port Size :</t>
+  </si>
+  <si>
+    <t>{addressSpaceRef=apb}</t>
+  </si>
+  <si>
+    <t>{memoryMapRef=ambaAHB}</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block  </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Register </t>
+      <t xml:space="preserve">register </t>
     </r>
     <r>
       <rPr>
@@ -1636,172 +1780,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Field  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bits </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sw access </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field default  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hw access </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field description  </t>
-  </si>
-  <si>
-    <t>Sheet name</t>
-  </si>
-  <si>
-    <t>spec_type</t>
-  </si>
-  <si>
-    <t>ams_discipline</t>
-  </si>
-  <si>
-    <t>BusInterfaceRef</t>
-  </si>
-  <si>
-    <t>$bus_interface_type</t>
-  </si>
-  <si>
-    <t>$remapdesc</t>
-  </si>
-  <si>
-    <t>Comp Name</t>
-  </si>
-  <si>
-    <t>Instance Description</t>
-  </si>
-  <si>
-    <t>Instance Ref</t>
-  </si>
-  <si>
-    <t>I_Bus</t>
-  </si>
-  <si>
-    <t>BusProperties</t>
-  </si>
-  <si>
-    <t>Bus connection  Desc</t>
-  </si>
-  <si>
-    <t>T_Bus</t>
-  </si>
-  <si>
-    <t>Sinitiator</t>
-  </si>
-  <si>
-    <t>I_Signal</t>
-  </si>
-  <si>
-    <t>SignalProperties</t>
-  </si>
-  <si>
-    <t>T_Signal</t>
-  </si>
-  <si>
-    <t>Signal connections Desc</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>AddressSpaces</t>
-  </si>
-  <si>
-    <t>addressSpace</t>
-  </si>
-  <si>
-    <t>$address_space</t>
-  </si>
-  <si>
-    <t>localMemorymap</t>
-  </si>
-  <si>
-    <t>$local_memorymap</t>
-  </si>
-  <si>
-    <t>addressBlock</t>
-  </si>
-  <si>
-    <t>$address_block</t>
-  </si>
-  <si>
-    <t>addressOffset</t>
-  </si>
-  <si>
-    <t>$address_offset</t>
-  </si>
-  <si>
-    <t>baseAddress</t>
-  </si>
-  <si>
-    <t>$base_address</t>
-  </si>
-  <si>
-    <t>addressUnit</t>
-  </si>
-  <si>
-    <t>$address_unit</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>$range</t>
-  </si>
-  <si>
-    <t>$width</t>
-  </si>
-  <si>
-    <t>addressSpaceDescription</t>
-  </si>
-  <si>
-    <t>$address_description</t>
-  </si>
-  <si>
-    <t>slave</t>
-  </si>
-  <si>
-    <t>spiritconsortium.org,busdef.clock,clock_rtl,1.0</t>
-  </si>
-  <si>
-    <t>amba.com,AMBA2,AHB_rtl,r2p0_6</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>amba.com,AMBA2,APB_rtl,r2p0_4</t>
-  </si>
-  <si>
-    <t>spiritconsortium.org,busdef.reset,reset_rtl,1.0</t>
-  </si>
-  <si>
-    <t>localMemoryMap</t>
-  </si>
-  <si>
-    <t>apb</t>
-  </si>
-  <si>
-    <t>Master Port Size :</t>
-  </si>
-  <si>
-    <t>{addressSpaceRef=apb}</t>
-  </si>
-  <si>
-    <t>{memoryMapRef=ambaAHB}</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>31:16</t>
+    <t xml:space="preserve">field  </t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2877,6 +2856,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2907,6 +2896,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2997,557 +2992,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -4001,25 +3454,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="142" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="142" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -4030,7 +3483,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -4041,7 +3494,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -4052,7 +3505,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -4286,9 +3739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,14 +3760,14 @@
       <c r="A1" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="142" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="C1" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="132" t="s">
@@ -4329,37 +3782,37 @@
       <c r="D2" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="178" t="s">
+      <c r="E2" s="138" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="179" t="s">
-        <v>447</v>
+      <c r="F2" s="139" t="s">
+        <v>440</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="H2" s="178" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2" s="138" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="139" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="179" t="s">
-        <v>449</v>
+      <c r="J2" s="139" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4369,10 +3822,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -4383,16 +3836,16 @@
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4402,10 +3855,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -4416,18 +3869,18 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4437,10 +3890,10 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -4452,10 +3905,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -4467,10 +3920,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -4482,10 +3935,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -4497,10 +3950,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -4512,10 +3965,10 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -4527,10 +3980,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -4542,10 +3995,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -4557,10 +4010,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -4572,10 +4025,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -4587,10 +4040,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -4602,10 +4055,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -4638,18 +4091,18 @@
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -4659,10 +4112,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -4674,10 +4127,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -4689,10 +4142,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -4704,10 +4157,10 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -4719,10 +4172,10 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -4734,10 +4187,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -5059,37 +4512,37 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B1 B3:B1048576">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A55 C56:I56 C3:J55">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="11">
       <formula>LEN(TRIM(J56))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(A56))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5110,8 +4563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F191"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5162,8 +4615,8 @@
       <c r="C5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="170"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="176"/>
       <c r="F5" s="34" t="s">
         <v>20</v>
       </c>
@@ -5175,8 +4628,8 @@
       <c r="C6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="170"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="176"/>
       <c r="F6" s="34" t="s">
         <v>23</v>
       </c>
@@ -5188,8 +4641,8 @@
       <c r="C7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="168"/>
-      <c r="E7" s="170"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="176"/>
       <c r="F7" s="34" t="s">
         <v>26</v>
       </c>
@@ -5202,8 +4655,8 @@
       <c r="C8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="170"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="176"/>
       <c r="F8" s="34" t="s">
         <v>29</v>
       </c>
@@ -5216,8 +4669,8 @@
       <c r="C9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="168"/>
-      <c r="E9" s="170"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="176"/>
       <c r="F9" s="34" t="s">
         <v>31</v>
       </c>
@@ -5230,8 +4683,8 @@
       <c r="C10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="168"/>
-      <c r="E10" s="170"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="176"/>
       <c r="F10" s="34" t="s">
         <v>34</v>
       </c>
@@ -5244,8 +4697,8 @@
       <c r="C11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="168"/>
-      <c r="E11" s="170"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="176"/>
       <c r="F11" s="39" t="s">
         <v>37</v>
       </c>
@@ -5258,21 +4711,21 @@
       <c r="C12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="168"/>
-      <c r="E12" s="170"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="176"/>
       <c r="F12" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="170"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="176"/>
       <c r="F13" s="34" t="s">
         <v>42</v>
       </c>
@@ -5284,8 +4737,8 @@
       <c r="C14" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="168"/>
-      <c r="E14" s="170"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="176"/>
       <c r="F14" s="34" t="s">
         <v>45</v>
       </c>
@@ -5297,8 +4750,8 @@
       <c r="C15" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="168"/>
-      <c r="E15" s="170"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="176"/>
       <c r="F15" s="34" t="s">
         <v>48</v>
       </c>
@@ -5310,8 +4763,8 @@
       <c r="C16" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="170"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="176"/>
       <c r="F16" s="44" t="s">
         <v>51</v>
       </c>
@@ -5324,8 +4777,8 @@
       <c r="C17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="168"/>
-      <c r="E17" s="170"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="176"/>
       <c r="F17" s="44" t="s">
         <v>54</v>
       </c>
@@ -5338,8 +4791,8 @@
       <c r="C18" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="168"/>
-      <c r="E18" s="170"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="176"/>
       <c r="F18" s="44" t="s">
         <v>57</v>
       </c>
@@ -5352,8 +4805,8 @@
       <c r="C19" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="168"/>
-      <c r="E19" s="170"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="176"/>
       <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5364,8 +4817,8 @@
       <c r="C20" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="168"/>
-      <c r="E20" s="170"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="176"/>
       <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5375,24 +4828,24 @@
       <c r="C21" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="170"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="176"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="47"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="170"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="176"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="41" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="170"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="176"/>
       <c r="F23" s="44" t="s">
         <v>65</v>
       </c>
@@ -5405,8 +4858,8 @@
       <c r="C24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="170"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="176"/>
       <c r="F24" s="44" t="s">
         <v>68</v>
       </c>
@@ -5418,8 +4871,8 @@
       <c r="C25" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="168"/>
-      <c r="E25" s="170"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="176"/>
       <c r="F25" s="44" t="s">
         <v>71</v>
       </c>
@@ -5432,8 +4885,8 @@
       <c r="C26" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="169"/>
-      <c r="E26" s="170"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="176"/>
       <c r="F26" s="44" t="s">
         <v>74</v>
       </c>
@@ -5448,7 +4901,7 @@
       <c r="D27" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="170"/>
+      <c r="E27" s="176"/>
       <c r="F27" s="44" t="s">
         <v>78</v>
       </c>
@@ -5461,8 +4914,8 @@
       <c r="C28" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="170"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="176"/>
       <c r="F28" s="44"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5473,8 +4926,8 @@
       <c r="C29" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="170"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="176"/>
       <c r="F29" s="44" t="s">
         <v>83</v>
       </c>
@@ -5482,13 +4935,13 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" s="41" t="s">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="170"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="176"/>
       <c r="F30" s="44"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5499,8 +4952,8 @@
       <c r="C31" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="170"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="176"/>
       <c r="F31" s="44" t="s">
         <v>87</v>
       </c>
@@ -5513,8 +4966,8 @@
       <c r="C32" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="172"/>
-      <c r="E32" s="170"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="176"/>
       <c r="F32" s="44"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5525,8 +4978,8 @@
       <c r="C33" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="170"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="176"/>
       <c r="F33" s="44"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5537,8 +4990,8 @@
       <c r="C34" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="172"/>
-      <c r="E34" s="170"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="176"/>
       <c r="F34" s="44"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5549,8 +5002,8 @@
       <c r="C35" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="172"/>
-      <c r="E35" s="170"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="176"/>
       <c r="F35" s="44"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5560,39 +5013,39 @@
       <c r="C36" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="172"/>
-      <c r="E36" s="170"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="176"/>
       <c r="F36" s="44"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="49"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="170"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="176"/>
       <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="41" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="C38" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="172"/>
-      <c r="E38" s="170"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="176"/>
       <c r="F38" s="44" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="41" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="173"/>
-      <c r="E39" s="170"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="176"/>
       <c r="F39" s="44" t="s">
         <v>101</v>
       </c>
@@ -5600,7 +5053,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
       <c r="B40" s="41" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>102</v>
@@ -5608,14 +5061,14 @@
       <c r="D40" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="170"/>
+      <c r="E40" s="176"/>
       <c r="F40" s="44" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>105</v>
@@ -5623,7 +5076,7 @@
       <c r="D41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="170"/>
+      <c r="E41" s="176"/>
       <c r="F41" s="44" t="s">
         <v>106</v>
       </c>
@@ -5631,7 +5084,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
       <c r="B42" s="41" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>107</v>
@@ -5639,20 +5092,20 @@
       <c r="D42" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="170"/>
+      <c r="E42" s="176"/>
       <c r="F42" s="44" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="41" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="174"/>
-      <c r="E43" s="170"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="176"/>
       <c r="F43" s="44" t="s">
         <v>111</v>
       </c>
@@ -5664,8 +5117,8 @@
       <c r="C44" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="175"/>
-      <c r="E44" s="170"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="176"/>
       <c r="F44" s="44" t="s">
         <v>114</v>
       </c>
@@ -5677,15 +5130,15 @@
       <c r="C45" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="175"/>
-      <c r="E45" s="170"/>
+      <c r="D45" s="181"/>
+      <c r="E45" s="176"/>
       <c r="F45" s="44"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="41"/>
       <c r="C46" s="53"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="170"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="176"/>
       <c r="F46" s="44"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5695,8 +5148,8 @@
       <c r="C47" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="175"/>
-      <c r="E47" s="170"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="176"/>
       <c r="F47" s="44" t="s">
         <v>119</v>
       </c>
@@ -5708,14 +5161,14 @@
       <c r="C48" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="175"/>
-      <c r="E48" s="170"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="176"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="54"/>
       <c r="C49" s="53"/>
-      <c r="D49" s="175"/>
-      <c r="E49" s="170"/>
+      <c r="D49" s="181"/>
+      <c r="E49" s="176"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="41" t="s">
@@ -5724,8 +5177,8 @@
       <c r="C50" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="175"/>
-      <c r="E50" s="170"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="176"/>
       <c r="F50" s="44" t="s">
         <v>124</v>
       </c>
@@ -5737,8 +5190,8 @@
       <c r="C51" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="175"/>
-      <c r="E51" s="170"/>
+      <c r="D51" s="181"/>
+      <c r="E51" s="176"/>
       <c r="F51" s="44" t="s">
         <v>127</v>
       </c>
@@ -5750,8 +5203,8 @@
       <c r="C52" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="175"/>
-      <c r="E52" s="170"/>
+      <c r="D52" s="181"/>
+      <c r="E52" s="176"/>
       <c r="F52" s="44" t="s">
         <v>130</v>
       </c>
@@ -5763,8 +5216,8 @@
       <c r="C53" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="175"/>
-      <c r="E53" s="170"/>
+      <c r="D53" s="181"/>
+      <c r="E53" s="176"/>
       <c r="F53" s="44" t="s">
         <v>133</v>
       </c>
@@ -5776,8 +5229,8 @@
       <c r="C54" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="175"/>
-      <c r="E54" s="170"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="176"/>
       <c r="F54" s="44" t="s">
         <v>136</v>
       </c>
@@ -5789,8 +5242,8 @@
       <c r="C55" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="175"/>
-      <c r="E55" s="170"/>
+      <c r="D55" s="181"/>
+      <c r="E55" s="176"/>
       <c r="F55" s="44" t="s">
         <v>139</v>
       </c>
@@ -5802,8 +5255,8 @@
       <c r="C56" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="175"/>
-      <c r="E56" s="170"/>
+      <c r="D56" s="181"/>
+      <c r="E56" s="176"/>
       <c r="F56" s="44" t="s">
         <v>142</v>
       </c>
@@ -5811,20 +5264,20 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="41"/>
       <c r="C57" s="53"/>
-      <c r="D57" s="175"/>
-      <c r="E57" s="170"/>
+      <c r="D57" s="181"/>
+      <c r="E57" s="176"/>
       <c r="F57" s="44"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="55"/>
       <c r="B58" s="41" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C58" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="175"/>
-      <c r="E58" s="170"/>
+      <c r="D58" s="181"/>
+      <c r="E58" s="176"/>
       <c r="F58" s="44" t="s">
         <v>144</v>
       </c>
@@ -5837,8 +5290,8 @@
       <c r="C59" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="175"/>
-      <c r="E59" s="170"/>
+      <c r="D59" s="181"/>
+      <c r="E59" s="176"/>
       <c r="F59" s="44" t="s">
         <v>147</v>
       </c>
@@ -5851,8 +5304,8 @@
       <c r="C60" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="175"/>
-      <c r="E60" s="170"/>
+      <c r="D60" s="181"/>
+      <c r="E60" s="176"/>
       <c r="F60" s="44" t="s">
         <v>150</v>
       </c>
@@ -5865,8 +5318,8 @@
       <c r="C61" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="175"/>
-      <c r="E61" s="170"/>
+      <c r="D61" s="181"/>
+      <c r="E61" s="176"/>
       <c r="F61" s="44" t="s">
         <v>153</v>
       </c>
@@ -5879,8 +5332,8 @@
       <c r="C62" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="175"/>
-      <c r="E62" s="170"/>
+      <c r="D62" s="181"/>
+      <c r="E62" s="176"/>
       <c r="F62" s="44" t="s">
         <v>153</v>
       </c>
@@ -5893,8 +5346,8 @@
       <c r="C63" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="175"/>
-      <c r="E63" s="170"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="176"/>
       <c r="F63" s="44" t="s">
         <v>158</v>
       </c>
@@ -5907,8 +5360,8 @@
       <c r="C64" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="175"/>
-      <c r="E64" s="170"/>
+      <c r="D64" s="181"/>
+      <c r="E64" s="176"/>
       <c r="F64" s="44" t="s">
         <v>160</v>
       </c>
@@ -5921,8 +5374,8 @@
       <c r="C65" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="175"/>
-      <c r="E65" s="170"/>
+      <c r="D65" s="181"/>
+      <c r="E65" s="176"/>
       <c r="F65" s="44" t="s">
         <v>163</v>
       </c>
@@ -5935,8 +5388,8 @@
       <c r="C66" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="175"/>
-      <c r="E66" s="170"/>
+      <c r="D66" s="181"/>
+      <c r="E66" s="176"/>
       <c r="F66" s="44" t="s">
         <v>166</v>
       </c>
@@ -5949,8 +5402,8 @@
       <c r="C67" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="175"/>
-      <c r="E67" s="170"/>
+      <c r="D67" s="181"/>
+      <c r="E67" s="176"/>
       <c r="F67" s="44" t="s">
         <v>169</v>
       </c>
@@ -5962,8 +5415,8 @@
       <c r="C68" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="175"/>
-      <c r="E68" s="170"/>
+      <c r="D68" s="181"/>
+      <c r="E68" s="176"/>
       <c r="F68" s="44" t="s">
         <v>172</v>
       </c>
@@ -6053,7 +5506,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="76" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C77" s="75" t="s">
         <v>236</v>
@@ -6085,7 +5538,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="76" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C80" s="75" t="s">
         <v>238</v>
@@ -6096,7 +5549,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="74" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C81" s="75" t="s">
         <v>239</v>
@@ -6107,7 +5560,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="76" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C82" s="75" t="s">
         <v>240</v>
@@ -6118,7 +5571,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="76" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C83" s="75" t="s">
         <v>241</v>
@@ -6168,7 +5621,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="61" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C88" s="62" t="s">
         <v>185</v>
@@ -6201,7 +5654,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="61" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C91" s="62" t="s">
         <v>189</v>
@@ -6393,7 +5846,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="61" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C109" s="62" t="s">
         <v>249</v>
@@ -6476,7 +5929,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="61" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C117" s="62" t="s">
         <v>251</v>
@@ -6509,10 +5962,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="61" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C120" s="62" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D120" s="63"/>
       <c r="E120" s="64"/>
@@ -6520,10 +5973,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" s="61" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C121" s="62" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D121" s="63"/>
       <c r="E121" s="64"/>
@@ -6538,7 +5991,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B123" s="61"/>
       <c r="C123" s="62"/>
@@ -6548,10 +6001,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="61" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C124" s="62" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D124" s="63"/>
       <c r="E124" s="64"/>
@@ -6562,7 +6015,7 @@
         <v>266</v>
       </c>
       <c r="C125" s="62" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D125" s="63"/>
       <c r="E125" s="64"/>
@@ -6573,7 +6026,7 @@
         <v>265</v>
       </c>
       <c r="C126" s="62" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D126" s="63"/>
       <c r="E126" s="64"/>
@@ -6584,7 +6037,7 @@
         <v>267</v>
       </c>
       <c r="C127" s="62" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D127" s="63"/>
       <c r="E127" s="64"/>
@@ -6592,10 +6045,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="61" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C128" s="62" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D128" s="63"/>
       <c r="E128" s="64"/>
@@ -6603,10 +6056,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="61" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C129" s="62" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D129" s="63"/>
       <c r="E129" s="64"/>
@@ -6614,10 +6067,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B130" s="61" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C130" s="62" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D130" s="63"/>
       <c r="E130" s="64"/>
@@ -6625,10 +6078,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B131" s="61" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C131" s="62" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D131" s="63"/>
       <c r="E131" s="64"/>
@@ -6636,10 +6089,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="61" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C132" s="62" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D132" s="63"/>
       <c r="E132" s="64"/>
@@ -6647,10 +6100,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="61" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C133" s="62" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D133" s="63"/>
       <c r="E133" s="64"/>
@@ -6672,7 +6125,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="40" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B136" s="61"/>
       <c r="C136" s="62"/>
@@ -6682,10 +6135,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B137" s="61" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C137" s="62" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D137" s="63"/>
       <c r="E137" s="64"/>
@@ -6693,10 +6146,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="61" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C138" s="62" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D138" s="63"/>
       <c r="E138" s="64"/>
@@ -6704,10 +6157,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="61" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C139" s="62" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D139" s="63"/>
       <c r="E139" s="64"/>
@@ -6715,10 +6168,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="61" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C140" s="62" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D140" s="63"/>
       <c r="E140" s="64"/>
@@ -6726,10 +6179,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="61" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C141" s="62" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D141" s="63"/>
       <c r="E141" s="64"/>
@@ -6737,10 +6190,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="61" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C142" s="62" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D142" s="63"/>
       <c r="E142" s="64"/>
@@ -6755,7 +6208,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="40" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B144" s="61"/>
       <c r="C144" s="62"/>
@@ -6765,10 +6218,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="61" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C145" s="62" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D145" s="63"/>
       <c r="E145" s="64"/>
@@ -6776,10 +6229,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="61" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C146" s="62" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D146" s="63"/>
       <c r="E146" s="64"/>
@@ -6787,10 +6240,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" s="61" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C147" s="62" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D147" s="63"/>
       <c r="E147" s="64"/>
@@ -6798,10 +6251,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="61" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C148" s="62" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D148" s="63"/>
       <c r="E148" s="64"/>
@@ -6809,10 +6262,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="61" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C149" s="62" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D149" s="63"/>
       <c r="E149" s="64"/>
@@ -6820,10 +6273,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="61" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C150" s="62" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D150" s="63"/>
       <c r="E150" s="64"/>
@@ -6841,7 +6294,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="61" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C152" s="62" t="s">
         <v>278</v>
@@ -6921,7 +6374,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B160" s="61"/>
       <c r="C160" s="62"/>
@@ -6931,10 +6384,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B161" s="61" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C161" s="62" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D161" s="63"/>
       <c r="E161" s="64"/>
@@ -6942,10 +6395,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="61" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C162" s="62" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D162" s="63"/>
       <c r="E162" s="64"/>
@@ -6953,10 +6406,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B163" s="61" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C163" s="62" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D163" s="63"/>
       <c r="E163" s="64"/>
@@ -6964,10 +6417,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B164" s="61" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C164" s="62" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D164" s="63"/>
       <c r="E164" s="64"/>
@@ -6975,10 +6428,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" s="61" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C165" s="62" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D165" s="63"/>
       <c r="E165" s="64"/>
@@ -6986,10 +6439,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" s="61" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C166" s="62" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D166" s="63"/>
       <c r="E166" s="64"/>
@@ -6997,10 +6450,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" s="61" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C167" s="62" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D167" s="63"/>
       <c r="E167" s="64"/>
@@ -7008,10 +6461,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B168" s="61" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C168" s="62" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D168" s="63"/>
       <c r="E168" s="64"/>
@@ -7019,10 +6472,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" s="61" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C169" s="62" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D169" s="63"/>
       <c r="E169" s="64"/>
@@ -7050,7 +6503,7 @@
       <c r="F172" s="44"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="176" t="s">
+      <c r="A174" s="182" t="s">
         <v>215</v>
       </c>
       <c r="B174" s="21" t="s">
@@ -7070,7 +6523,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="177"/>
+      <c r="A175" s="183"/>
       <c r="B175" s="32" t="s">
         <v>216</v>
       </c>
@@ -7084,7 +6537,7 @@
       <c r="F175" s="44"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="177"/>
+      <c r="A176" s="183"/>
       <c r="B176" s="41" t="s">
         <v>219</v>
       </c>
@@ -7098,7 +6551,7 @@
       <c r="F176" s="44"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="177"/>
+      <c r="A177" s="183"/>
       <c r="B177" s="32" t="s">
         <v>221</v>
       </c>
@@ -7112,7 +6565,7 @@
       <c r="F177" s="44"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="177"/>
+      <c r="A178" s="183"/>
       <c r="B178" s="32" t="s">
         <v>223</v>
       </c>
@@ -7215,14 +6668,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="147"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="150" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="151"/>
       <c r="E1" s="135"/>
       <c r="F1" s="135"/>
       <c r="G1" s="135"/>
@@ -7349,16 +6802,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="148" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146" t="s">
-        <v>356</v>
-      </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="150" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
@@ -7382,7 +6835,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="107" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C3" s="108"/>
       <c r="D3" s="108"/>
@@ -7449,21 +6902,21 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -7472,180 +6925,180 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="6" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="8" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="6" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="6" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="6" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="6" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="6" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D21" s="12"/>
     </row>
@@ -7717,71 +7170,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="180" t="s">
-        <v>477</v>
-      </c>
-      <c r="B1" s="181"/>
+      <c r="A1" s="152" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="153"/>
       <c r="C1" s="136"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>488</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
-        <v>502</v>
-      </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="182">
+      <c r="A3" s="140" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3" s="140">
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="182"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="F4" s="182"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="F4" s="140"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
+      <c r="E5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7811,16 +7264,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="146" t="s">
-        <v>361</v>
-      </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="150" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
@@ -7845,20 +7298,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7866,10 +7319,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7877,10 +7330,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7888,10 +7341,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7899,10 +7352,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7910,10 +7363,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7921,10 +7374,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -7932,10 +7385,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7943,10 +7396,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7954,10 +7407,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="83" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7965,10 +7418,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7976,10 +7429,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -7987,10 +7440,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -7998,10 +7451,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -8009,10 +7462,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -8020,10 +7473,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -8031,10 +7484,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -8042,10 +7495,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -8053,10 +7506,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -8176,11 +7629,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:I7"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8190,110 +7643,117 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="142" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="132" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" s="132" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="132" t="s">
-        <v>311</v>
-      </c>
-      <c r="F3" s="132" t="s">
-        <v>312</v>
-      </c>
-      <c r="G3" s="132" t="s">
-        <v>313</v>
-      </c>
-      <c r="H3" s="132" t="s">
-        <v>314</v>
-      </c>
-      <c r="I3" s="132" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3" s="132" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" s="132" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D5">
+      <c r="B1" s="156"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="146" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="132" t="str">
+        <f>ids_template!B13</f>
+        <v xml:space="preserve">block  </v>
+      </c>
+      <c r="B3" s="132" t="str">
+        <f>ids_template!B23</f>
+        <v xml:space="preserve">register </v>
+      </c>
+      <c r="C3" s="132" t="str">
+        <f>ids_template!B30</f>
+        <v>width</v>
+      </c>
+      <c r="D3" s="132" t="str">
+        <f>ids_template!B38</f>
+        <v xml:space="preserve">field  </v>
+      </c>
+      <c r="E3" s="132" t="str">
+        <f>ids_template!B40</f>
+        <v xml:space="preserve">Sw access </v>
+      </c>
+      <c r="F3" s="132" t="str">
+        <f>ids_template!B42</f>
+        <v xml:space="preserve">Hw access </v>
+      </c>
+      <c r="G3" s="184" t="str">
+        <f>ids_template!B41</f>
+        <v xml:space="preserve">Field default  </v>
+      </c>
+      <c r="H3" s="132" t="str">
+        <f>ids_template!B39</f>
+        <v xml:space="preserve">Bits </v>
+      </c>
+      <c r="I3" s="132" t="str">
+        <f>ids_template!B58</f>
+        <v>Offset</v>
+      </c>
+      <c r="J3" s="132" t="str">
+        <f>ids_template!B64</f>
+        <v>Description</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
       <c r="E6" t="s">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="141" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" t="s">
         <v>103</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="183" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>446</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
       </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="I7" s="46" t="s">
-        <v>507</v>
+      <c r="H7" s="46" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -8329,17 +7789,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="148" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="142" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="146" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="132" t="s">
@@ -8380,7 +7840,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="154"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="109"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -8394,10 +7854,10 @@
       <c r="M3" s="115"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="157"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="112"/>
       <c r="G4" s="113"/>
       <c r="H4" s="114"/>
@@ -8408,10 +7868,10 @@
       <c r="M4" s="115"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="157"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="112"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
@@ -8422,10 +7882,10 @@
       <c r="M5" s="115"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="112"/>
       <c r="G6" s="113"/>
       <c r="H6" s="117"/>
@@ -8436,10 +7896,10 @@
       <c r="M6" s="115"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="157"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="163"/>
       <c r="F7" s="112"/>
       <c r="G7" s="118"/>
       <c r="H7" s="117"/>
@@ -8450,10 +7910,10 @@
       <c r="M7" s="115"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="157"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="163"/>
       <c r="F8" s="112"/>
       <c r="G8" s="118"/>
       <c r="H8" s="117"/>
@@ -8464,7 +7924,7 @@
       <c r="M8" s="121"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="154"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="89"/>
       <c r="D9" s="110"/>
       <c r="E9" s="111"/>
@@ -8478,7 +7938,7 @@
       <c r="M9" s="121"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="154"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="109"/>
       <c r="D10" s="110"/>
       <c r="E10" s="111"/>
@@ -8492,7 +7952,7 @@
       <c r="M10" s="110"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="154"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="123"/>
       <c r="D11" s="115"/>
       <c r="E11" s="124"/>
@@ -8506,9 +7966,9 @@
       <c r="M11" s="115"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="155"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="156"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="162"/>
       <c r="E12" s="111"/>
       <c r="F12" s="112"/>
       <c r="G12" s="113"/>
@@ -8520,9 +7980,9 @@
       <c r="M12" s="121"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="155"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="156"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="162"/>
       <c r="E13" s="111"/>
       <c r="F13" s="112"/>
       <c r="G13" s="113"/>
@@ -8534,9 +7994,9 @@
       <c r="M13" s="121"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="155"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="156"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="162"/>
       <c r="E14" s="111"/>
       <c r="F14" s="112"/>
       <c r="G14" s="113"/>
@@ -8548,9 +8008,9 @@
       <c r="M14" s="121"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="155"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="156"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="111"/>
       <c r="F15" s="112"/>
       <c r="G15" s="113"/>
@@ -8562,9 +8022,9 @@
       <c r="M15" s="121"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="155"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="156"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="111"/>
       <c r="F16" s="112"/>
       <c r="G16" s="113"/>
@@ -8576,9 +8036,9 @@
       <c r="M16" s="121"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="155"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="156"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="162"/>
       <c r="E17" s="111"/>
       <c r="F17" s="112"/>
       <c r="G17" s="113"/>
@@ -8590,9 +8050,9 @@
       <c r="M17" s="121"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="155"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="156"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="111"/>
       <c r="F18" s="112"/>
       <c r="G18" s="113"/>
@@ -8604,9 +8064,9 @@
       <c r="M18" s="121"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="155"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="156"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="162"/>
       <c r="E19" s="111"/>
       <c r="F19" s="112"/>
       <c r="G19" s="113"/>
@@ -8698,19 +8158,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="148" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="142" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
+      <c r="A1" s="154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="146" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A3" s="126" t="s">
@@ -8745,163 +8205,163 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="80" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" s="161" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="167" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="163"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="169"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="165"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="171"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="167"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="173"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="167"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="173"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="167"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="173"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="167"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="173"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="167"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="173"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="167"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="173"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="167"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="173"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="167"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="173"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="167"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="173"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="97"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="160"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="166"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="126" t="s">
